--- a/21.cash.flow/02.code/01.filled by control.wady el natroon.xlsx
+++ b/21.cash.flow/02.code/01.filled by control.wady el natroon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/21.cash.flow/02.code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{D9226E98-554E-4499-9F86-355D226FBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2BD3B51-C318-4B26-AE3F-756BE1890C35}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{D9226E98-554E-4499-9F86-355D226FBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531C25E6-C41C-4791-93E4-17A2C3A28E60}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="needed" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>work_package</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>later_start</t>
+  </si>
+  <si>
+    <t>direct+indirect cost dist</t>
   </si>
 </sst>
 </file>
@@ -244,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418858D-4220-4ECE-BEF5-D988FB18424D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="7">
-        <v>45436</v>
+        <v>45801</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -590,19 +597,55 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B4*B3</f>
+        <v>17037127.0255</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B4*B2</f>
+        <v>62409831.576666661</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
@@ -613,74 +656,41 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B4*B3</f>
-        <v>17037127.0255</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B4*B2</f>
-        <v>62409831.576666661</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
   </sheetData>
@@ -693,9 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12:H15"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1270,7 @@
       </c>
       <c r="E23" s="7">
         <f>needed!B7</f>
-        <v>45436</v>
+        <v>45801</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
@@ -1269,7 +1279,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3">
         <f>(budget_cost!E23-needed!$B$6)/30</f>
-        <v>-1.0333333333333334</v>
+        <v>11.133333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1288,7 +1298,7 @@
       </c>
       <c r="E24" s="7">
         <f>E23+62</f>
-        <v>45498</v>
+        <v>45863</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
@@ -1297,7 +1307,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3">
         <f>(budget_cost!E24-needed!$B$6)/30</f>
-        <v>1.0333333333333334</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
